--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.021021.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.021021.xlsx_with_dialog_acts.xlsx
@@ -1117,12 +1117,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1345,12 +1345,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1687,12 +1687,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1725,12 +1725,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2789,12 +2789,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3477,12 +3477,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3671,12 +3671,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3899,12 +3899,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4013,12 +4013,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4355,12 +4355,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4621,12 +4621,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4739,12 +4739,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5119,12 +5119,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5385,12 +5385,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5689,12 +5689,12 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5841,12 +5841,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7099,12 +7099,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7593,12 +7593,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8277,12 +8277,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8657,12 +8657,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8847,12 +8847,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8885,12 +8885,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9075,12 +9075,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9113,12 +9113,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9189,12 +9189,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9227,12 +9227,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9303,12 +9303,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9379,12 +9379,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9531,12 +9531,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9607,12 +9607,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9759,12 +9759,12 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9949,12 +9949,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9987,12 +9987,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10481,12 +10481,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10633,12 +10633,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -10709,12 +10709,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10899,12 +10899,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11165,12 +11165,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11355,12 +11355,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11507,12 +11507,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11545,12 +11545,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12001,12 +12001,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12039,12 +12039,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12571,12 +12571,12 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12723,12 +12723,12 @@
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
